--- a/Excel Data/StockManagement.xlsx
+++ b/Excel Data/StockManagement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="stocksReceivedData" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,21 +614,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>456796</v>
+        <v>21585</v>
       </c>
       <c r="C2" s="11">
-        <v>456800</v>
+        <v>21590</v>
       </c>
       <c r="D2" s="3">
         <v>123</v>
       </c>
-      <c r="E2" s="3">
-        <v>9987645</v>
+      <c r="E2" s="7">
+        <v>5465627</v>
       </c>
       <c r="F2" s="3">
         <v>118573</v>
@@ -640,21 +640,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>12350</v>
+      <c r="B3" s="11">
+        <v>21591</v>
       </c>
       <c r="C3" s="11">
-        <v>12360</v>
+        <v>21595</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
       </c>
-      <c r="E3" s="3">
-        <v>4567794</v>
+      <c r="E3" s="7">
+        <v>5465628</v>
       </c>
       <c r="F3" s="11">
         <v>118574</v>
@@ -666,21 +666,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>77760</v>
+      <c r="B4" s="11">
+        <v>21596</v>
       </c>
       <c r="C4" s="11">
-        <v>77770</v>
+        <v>21600</v>
       </c>
       <c r="D4" s="3">
         <v>32</v>
       </c>
-      <c r="E4" s="3">
-        <v>5646423</v>
+      <c r="E4" s="7">
+        <v>5465629</v>
       </c>
       <c r="F4" s="11">
         <v>118575</v>
@@ -694,17 +694,17 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
-        <v>31570</v>
-      </c>
-      <c r="C5" s="7">
-        <v>31580</v>
+      <c r="B5" s="11">
+        <v>21601</v>
+      </c>
+      <c r="C5" s="11">
+        <v>21605</v>
       </c>
       <c r="D5" s="7">
         <v>12</v>
       </c>
       <c r="E5" s="7">
-        <v>5465627</v>
+        <v>5465630</v>
       </c>
       <c r="F5" s="11">
         <v>118576</v>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Excel Data/StockManagement.xlsx
+++ b/Excel Data/StockManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>CDR</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>must be valid in Main stock table</t>
+  </si>
+  <si>
+    <t>A.REMARKS</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -277,11 +280,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -296,6 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,19 +593,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,17 +621,20 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -630,17 +650,18 @@
       <c r="E2" s="7">
         <v>5465627</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="14"/>
+      <c r="G2" s="3">
         <v>118573</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -656,17 +677,18 @@
       <c r="E3" s="7">
         <v>5465628</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14"/>
+      <c r="G3" s="11">
         <v>118574</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -682,15 +704,16 @@
       <c r="E4" s="7">
         <v>5465629</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="14"/>
+      <c r="G4" s="11">
         <v>118575</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -706,13 +729,14 @@
       <c r="E5" s="7">
         <v>5465630</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14"/>
+      <c r="G5" s="11">
         <v>118576</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
